--- a/pred_ohlcv/54_21/2020-01-16 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WOM ohlcv.xlsx
@@ -9622,7 +9622,7 @@
         <v>-844673.7434815067</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-942222.3615815068</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-892805.0759815067</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-929147.346882386</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-868969.2827823861</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-907582.9170823861</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-907582.9170823861</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-786490.7624823861</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-782411.048282386</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-782411.048282386</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-723022.3358823861</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-740525.015482386</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-740525.015482386</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-742642.578182386</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-740469.643282386</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-769519.101182386</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-772024.5401823861</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-755510.0069823861</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-755510.0069823861</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-745763.491365752</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-758706.6501657519</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-768533.5428657519</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-763185.8176657519</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-779700.3508657519</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-769325.2074657518</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-768103.5480657518</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-765370.6908657518</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-765370.6908657518</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-780111.0299657518</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-779913.1881657518</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-779913.1881657518</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-778100.9739657517</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-778100.9739657517</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-803402.0802657517</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-864084.9913757249</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-847467.362575725</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-825882.461375725</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-823882.461375725</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-818558.386375725</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-818558.386375725</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-975085.014875725</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1087947.973675725</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1007223.155075725</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-948577.294675725</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-934276.454675725</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>386950.9045854203</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>375270.4740854203</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>281465.0069854203</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>345446.4846854203</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>421902.8978720997</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>414800.3220720997</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>385638.6361720997</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>366645.5881720997</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>387147.7639539079</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>384335.815853908</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>426986.231453908</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>384593.899553908</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>436001.234353908</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>434435.271753908</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>494889.857653908</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>494889.857653908</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>500565.184253908</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>500565.184253908</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>777418.8095884699</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>540969.34238847</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>541307.1160812828</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>776196.92708847</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>945189.76458847</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>872541.1205780049</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>822336.5273780049</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1294251.287878005</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1462624.747923733</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1434573.699384222</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>1818707.049184222</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2677629.07728145</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2441953.089431073</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2192808.174431073</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2301965.737443771</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2134723.414128828</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2238465.002438257</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2304193.471099546</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2272916.502399546</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2460999.684399546</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2238588.752399546</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2316777.692499546</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>2257427.480936592</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2062475.27491862</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2236639.143900648</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2114836.468960032</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 WOM ohlcv.xlsx
@@ -9622,7 +9622,7 @@
         <v>-844673.7434815067</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-942222.3615815068</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-936605.9786815068</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-936605.9786815068</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-935666.5366815068</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-892805.0759815067</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-948282.826382386</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-965945.463382386</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-786490.7624823861</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-740249.039982386</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-975085.014875725</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1087947.973675725</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1007223.155075725</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-948577.294675725</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-934276.454675725</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>386950.9045854203</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>375270.4740854203</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>281465.0069854203</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>345446.4846854203</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>421902.8978720997</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>414800.3220720997</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>385638.6361720997</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>366645.5881720997</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>387147.7639539079</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>384335.815853908</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>426986.231453908</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>384593.899553908</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>436001.234353908</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>434435.271753908</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>494889.857653908</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>494889.857653908</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>500565.184253908</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>500565.184253908</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>777418.8095884699</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>540969.34238847</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>541307.1160812828</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>776196.92708847</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>945189.76458847</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>872541.1205780049</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>822336.5273780049</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1294251.287878005</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1462624.747923733</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1434573.699384222</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>1818707.049184222</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2677629.07728145</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2441953.089431073</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2192808.174431073</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2301965.737443771</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2134723.414128828</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2238465.002438257</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2282725.697974436</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2304193.471099546</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2272916.502399546</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2460999.684399546</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2238588.752399546</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2314593.103199546</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2316777.692499546</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2248485.379636592</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2062475.27491862</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2236639.143900648</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>2114836.468960032</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
